--- a/boom.xlsx
+++ b/boom.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bamia\Desktop\work\stm32\CAR1_HUIJIEZHAOXIN\AD\BalanceCar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bamia\Desktop\work\AD\BalanceCar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C6C8D8D-5444-443F-BD78-9C0406F2C02A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C01AA8D-C978-46FD-8340-7BDD4F0A8C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1428" yWindow="1248" windowWidth="21612" windowHeight="10992" xr2:uid="{32D1203B-BDC4-4C6A-9E5C-083429527ACF}"/>
+    <workbookView xWindow="4944" yWindow="2004" windowWidth="21612" windowHeight="10992" xr2:uid="{32D1203B-BDC4-4C6A-9E5C-083429527ACF}"/>
   </bookViews>
   <sheets>
     <sheet name="boom" sheetId="1" r:id="rId1"/>
@@ -673,7 +673,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A359A20A-20FA-4D22-8748-700967F9BCBA}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
